--- a/artfynd/A 30683-2023.xlsx
+++ b/artfynd/A 30683-2023.xlsx
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>502031.8810905553</v>
+        <v>502032</v>
       </c>
       <c r="R24" t="n">
-        <v>6984975.502382725</v>
+        <v>6984976</v>
       </c>
       <c r="S24" t="n">
         <v>40</v>
@@ -3331,19 +3331,9 @@
           <t>2023-07-28</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-07-28</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
